--- a/paper_output/CaseII/CaseII_main/CaseII_parameter_table_Beattie.xlsx
+++ b/paper_output/CaseII/CaseII_main/CaseII_parameter_table_Beattie.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.5E-01\(\pm\)4E-05</t>
+          <t>1.5E-01\(\pm\)5E-05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1.9E-05\(\pm\)1E-08</t>
+          <t>1.9E-05\(\pm\)2E-08</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -665,12 +665,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2.3E-02\(\pm\)4E-06</t>
+          <t>2.3E-02\(\pm\)5E-06</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.4E-02\(\pm\)9E-06</t>
+          <t>2.4E-02\(\pm\)8E-06</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
